--- a/amostra.xlsx
+++ b/amostra.xlsx
@@ -336,10 +336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,6 +494,356 @@
         <v>5</v>
       </c>
     </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5.3333333333333304</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6.3333333333333304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7.3333333333333304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8.3333333333333304</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>9.3333333333333304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10.3333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>11.3333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0.79999999999999905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>24.428571428571399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>27.857142857142801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>31.285714285714299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>0.79999999999999905</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
